--- a/classificationFile_sales/sumSales_year/茄类_sales.xlsx
+++ b/classificationFile_sales/sumSales_year/茄类_sales.xlsx
@@ -16,49 +16,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="15">
   <si>
+    <t>单品名称</t>
+  </si>
+  <si>
     <t>分类名称</t>
   </si>
   <si>
-    <t>单品名称</t>
-  </si>
-  <si>
     <t>年份</t>
   </si>
   <si>
     <t>销量(千克)</t>
   </si>
   <si>
+    <t>圆茄子(1)</t>
+  </si>
+  <si>
+    <t>圆茄子(2)</t>
+  </si>
+  <si>
+    <t>大龙茄子</t>
+  </si>
+  <si>
+    <t>紫圆茄</t>
+  </si>
+  <si>
+    <t>紫茄子(1)</t>
+  </si>
+  <si>
+    <t>紫茄子(2)</t>
+  </si>
+  <si>
+    <t>花茄子</t>
+  </si>
+  <si>
+    <t>长线茄</t>
+  </si>
+  <si>
+    <t>青茄子(1)</t>
+  </si>
+  <si>
+    <t>青茄子(2)</t>
+  </si>
+  <si>
     <t>茄类</t>
-  </si>
-  <si>
-    <t>圆茄子(1)</t>
-  </si>
-  <si>
-    <t>圆茄子(2)</t>
-  </si>
-  <si>
-    <t>大龙茄子</t>
-  </si>
-  <si>
-    <t>紫圆茄</t>
-  </si>
-  <si>
-    <t>紫茄子(1)</t>
-  </si>
-  <si>
-    <t>紫茄子(2)</t>
-  </si>
-  <si>
-    <t>花茄子</t>
-  </si>
-  <si>
-    <t>长线茄</t>
-  </si>
-  <si>
-    <t>青茄子(1)</t>
-  </si>
-  <si>
-    <t>青茄子(2)</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -452,10 +452,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -466,10 +466,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -480,10 +480,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -494,10 +494,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -522,10 +522,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -536,10 +536,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -550,10 +550,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -578,10 +578,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -592,10 +592,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>2020</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>2021</v>
@@ -620,10 +620,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -634,10 +634,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -648,10 +648,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>2020</v>
@@ -662,10 +662,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>2021</v>
@@ -676,10 +676,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -690,10 +690,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>2021</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -718,10 +718,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -732,10 +732,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>2020</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>2021</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -774,10 +774,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
